--- a/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -15,7 +15,6 @@
     <sheet name="~SK34 PENSION REPORT           " sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="#SK34 PENSION REPORT           " sheetId="3" r:id="rId4"/>
-    <sheet name="$SK34 PENSION REPORT           " sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>Pension EE</t>
   </si>
@@ -111,6 +110,13 @@
     <t>ER</t>
   </si>
   <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Forename [Dromahane] does not match Payroll member's (refno=0910332) forename [PHILIP] or its initial
+Surname [Recess] does not match Payroll member's (refno=0910332) surname  [BARRET]  (forename PHILIP)</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -120,6 +126,13 @@
     <t>Recess</t>
   </si>
   <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Forename [Ballybofey] does not match Payroll member's (refno=0910333) forename [JOHN] or its initial
+Surname [Kilcoole] does not match Payroll member's (refno=0910333) surname  [QUINN]  (forename JOHN)</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -129,6 +142,10 @@
     <t>Kilcoole</t>
   </si>
   <si>
+    <t>Forename [Caherdaniel] does not match Payroll member's (refno=0909496) forename [SEAN] or its initial
+Surname [Carndonagh] does not match Payroll member's (refno=0909496) surname  [HILL]  (forename SEAN)</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -138,6 +155,10 @@
     <t>Carndonagh</t>
   </si>
   <si>
+    <t>Forename [Sheeaun] does not match Payroll member's (refno=0920069) forename [FERGAL] or its initial
+Surname [D Knocknagoshel] does not match Payroll member's (refno=0920069) surname  [OBRIEN]  (forename FERGAL)</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -147,6 +168,10 @@
     <t>D Knocknagoshel</t>
   </si>
   <si>
+    <t>Forename [Ballinode] does not match Payroll member's (refno=0909495) forename [SINEAD] or its initial
+Surname [O'Portnablagh] does not match Payroll member's (refno=0909495) surname  [JONES]  (forename SINEAD)</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -156,6 +181,10 @@
     <t>O'Portnablagh</t>
   </si>
   <si>
+    <t>Forename [Rossaveel] does not match Payroll member's (refno=0909749) forename [TOM] or its initial
+Surname [Newtownforbes] does not match Payroll member's (refno=0909749) surname  [GREENAN]  (forename TOM)</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -177,26 +206,125 @@
     <t>6093.46</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1160359</t>
+  </si>
+  <si>
+    <t>352004</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>27/04/2021</t>
+  </si>
+  <si>
+    <t>7,091.18</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>ILIM April 2021</t>
+  </si>
+  <si>
+    <t>1157591</t>
+  </si>
+  <si>
+    <t>352001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>26/03/2021</t>
+  </si>
+  <si>
+    <t>15,329.63</t>
+  </si>
+  <si>
+    <t>01/03/2021</t>
+  </si>
+  <si>
+    <t>ILIM March 2021</t>
+  </si>
+  <si>
+    <t>1155040</t>
+  </si>
+  <si>
+    <t>29/03/2021</t>
+  </si>
+  <si>
+    <t>1151936</t>
+  </si>
+  <si>
+    <t>02/03/2021</t>
+  </si>
+  <si>
+    <t>13,973.83</t>
+  </si>
+  <si>
+    <t>01/02/2021</t>
+  </si>
+  <si>
+    <t>ILIM Feb 2021</t>
+  </si>
+  <si>
+    <t>1151311</t>
+  </si>
+  <si>
+    <t>26/02/2021</t>
+  </si>
+  <si>
+    <t>6,943.67</t>
+  </si>
+  <si>
+    <t>1147443</t>
+  </si>
+  <si>
+    <t>04/02/2021</t>
+  </si>
+  <si>
+    <t>13,733.89</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>ILIM Jan 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,30 +347,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -311,21 +434,20 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,7 +1047,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -933,10 +1055,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="108.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -955,17 +1077,22 @@
       <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="5"/>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>263.08</v>
@@ -973,17 +1100,22 @@
       <c r="F2">
         <v>420.93</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="5"/>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>117.23</v>
@@ -991,17 +1123,22 @@
       <c r="F3">
         <v>234.45</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="5"/>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>372.79</v>
@@ -1009,17 +1146,22 @@
       <c r="F4">
         <v>596.47</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="5"/>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>500.0</v>
@@ -1027,17 +1169,22 @@
       <c r="F5">
         <v>729.73</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="5"/>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>210.54</v>
@@ -1045,23 +1192,31 @@
       <c r="F6">
         <v>336.87</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="5"/>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>1751.04</v>
       </c>
       <c r="F7">
         <v>560.33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1072,13 +1227,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="15"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -1098,61 +1264,225 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -15,6 +15,7 @@
     <sheet name="~SK34 PENSION REPORT           " sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="#SK34 PENSION REPORT           " sheetId="3" r:id="rId4"/>
+    <sheet name="$SK34 PENSION REPORT           " sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="54">
   <si>
     <t>Pension EE</t>
   </si>
@@ -110,13 +111,6 @@
     <t>ER</t>
   </si>
   <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Forename [Dromahane] does not match Payroll member's (refno=0910332) forename [PHILIP] or its initial
-Surname [Recess] does not match Payroll member's (refno=0910332) surname  [BARRET]  (forename PHILIP)</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -126,13 +120,6 @@
     <t>Recess</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Forename [Ballybofey] does not match Payroll member's (refno=0910333) forename [JOHN] or its initial
-Surname [Kilcoole] does not match Payroll member's (refno=0910333) surname  [QUINN]  (forename JOHN)</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -142,10 +129,6 @@
     <t>Kilcoole</t>
   </si>
   <si>
-    <t>Forename [Caherdaniel] does not match Payroll member's (refno=0909496) forename [SEAN] or its initial
-Surname [Carndonagh] does not match Payroll member's (refno=0909496) surname  [HILL]  (forename SEAN)</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -155,10 +138,6 @@
     <t>Carndonagh</t>
   </si>
   <si>
-    <t>Forename [Sheeaun] does not match Payroll member's (refno=0920069) forename [FERGAL] or its initial
-Surname [D Knocknagoshel] does not match Payroll member's (refno=0920069) surname  [OBRIEN]  (forename FERGAL)</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -168,10 +147,6 @@
     <t>D Knocknagoshel</t>
   </si>
   <si>
-    <t>Forename [Ballinode] does not match Payroll member's (refno=0909495) forename [SINEAD] or its initial
-Surname [O'Portnablagh] does not match Payroll member's (refno=0909495) surname  [JONES]  (forename SINEAD)</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -181,10 +156,6 @@
     <t>O'Portnablagh</t>
   </si>
   <si>
-    <t>Forename [Rossaveel] does not match Payroll member's (refno=0909749) forename [TOM] or its initial
-Surname [Newtownforbes] does not match Payroll member's (refno=0909749) surname  [GREENAN]  (forename TOM)</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -206,125 +177,26 @@
     <t>6093.46</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1160359</t>
-  </si>
-  <si>
-    <t>352004</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>27/04/2021</t>
-  </si>
-  <si>
-    <t>7,091.18</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1157591</t>
-  </si>
-  <si>
-    <t>352001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>26/03/2021</t>
-  </si>
-  <si>
-    <t>15,329.63</t>
-  </si>
-  <si>
-    <t>01/03/2021</t>
-  </si>
-  <si>
-    <t>ILIM March 2021</t>
-  </si>
-  <si>
-    <t>1155040</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>1151936</t>
-  </si>
-  <si>
-    <t>02/03/2021</t>
-  </si>
-  <si>
-    <t>13,973.83</t>
-  </si>
-  <si>
-    <t>01/02/2021</t>
-  </si>
-  <si>
-    <t>ILIM Feb 2021</t>
-  </si>
-  <si>
-    <t>1151311</t>
-  </si>
-  <si>
-    <t>26/02/2021</t>
-  </si>
-  <si>
-    <t>6,943.67</t>
-  </si>
-  <si>
-    <t>1147443</t>
-  </si>
-  <si>
-    <t>04/02/2021</t>
-  </si>
-  <si>
-    <t>13,733.89</t>
-  </si>
-  <si>
-    <t>01/01/2021</t>
-  </si>
-  <si>
-    <t>ILIM Jan 2021</t>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,25 +219,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -434,20 +311,21 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,7 +925,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1055,10 +933,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="108.625"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1077,22 +955,17 @@
       <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="5" t="s">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
       </c>
       <c r="E2">
         <v>263.08</v>
@@ -1100,22 +973,17 @@
       <c r="F2">
         <v>420.93</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
       </c>
       <c r="E3">
         <v>117.23</v>
@@ -1123,22 +991,17 @@
       <c r="F3">
         <v>234.45</v>
       </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="5" t="s">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>372.79</v>
@@ -1146,22 +1009,17 @@
       <c r="F4">
         <v>596.47</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="5" t="s">
-        <v>41</v>
-      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>500.0</v>
@@ -1169,22 +1027,17 @@
       <c r="F5">
         <v>729.73</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="5" t="s">
-        <v>45</v>
-      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>210.54</v>
@@ -1192,31 +1045,23 @@
       <c r="F6">
         <v>336.87</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="5" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>1751.04</v>
       </c>
       <c r="F7">
         <v>560.33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1227,24 +1072,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="15"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -1264,225 +1098,61 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" t="s">
-        <v>94</v>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -14,8 +14,8 @@
   <sheets>
     <sheet name="~SK34 PENSION REPORT           " sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="#SK34 PENSION REPORT           " sheetId="3" r:id="rId4"/>
-    <sheet name="$SK34 PENSION REPORT           " sheetId="4" r:id="rId5"/>
+    <sheet name="$SK34 PENSION REPORT           " sheetId="3" r:id="rId4"/>
+    <sheet name="#SK34 PENSION REPORT           " sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>Pension EE</t>
   </si>
@@ -96,9 +96,6 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>PAYROLL</t>
-  </si>
-  <si>
     <t>FORENAME</t>
   </si>
   <si>
@@ -111,7 +108,11 @@
     <t>ER</t>
   </si>
   <si>
-    <t>1</t>
+    <t>AVC</t>
+  </si>
+  <si>
+    <t>No Refno or PPS number or payroll number specified
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>Dromahane</t>
@@ -120,51 +121,51 @@
     <t>Recess</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Ballybofey</t>
   </si>
   <si>
     <t>Kilcoole</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Caherdaniel</t>
   </si>
   <si>
     <t>Carndonagh</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Sheeaun</t>
   </si>
   <si>
     <t>D Knocknagoshel</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Ballinode</t>
   </si>
   <si>
     <t>O'Portnablagh</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Rossaveel</t>
   </si>
   <si>
     <t>Newtownforbes</t>
   </si>
   <si>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>Mandatory columns not found</t>
+  </si>
+  <si>
+    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
+  </si>
+  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -174,29 +175,131 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>6093.46</t>
-  </si>
-  <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>6593.46</t>
+  </si>
+  <si>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1181858</t>
+  </si>
+  <si>
+    <t>352001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>07/09/2021</t>
+  </si>
+  <si>
+    <t>15,788.67</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1180620</t>
+  </si>
+  <si>
+    <t>352004</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>30/08/2021</t>
+  </si>
+  <si>
+    <t>7,567.84</t>
+  </si>
+  <si>
+    <t>ILIM Aug 2021</t>
+  </si>
+  <si>
+    <t>1177725</t>
+  </si>
+  <si>
+    <t>12/08/2021</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>ILIM July 21</t>
+  </si>
+  <si>
+    <t>1176008</t>
+  </si>
+  <si>
+    <t>30/07/2021</t>
+  </si>
+  <si>
+    <t>ILIM July 2021</t>
+  </si>
+  <si>
+    <t>1173446</t>
+  </si>
+  <si>
+    <t>29/06/2021</t>
+  </si>
+  <si>
+    <t>476.66</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM June 2021 M McNulty (N/E)</t>
+  </si>
+  <si>
+    <t>1172079</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>15,827.67</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +317,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,21 +421,22 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,7 +1044,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="47.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -956,112 +1067,124 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>263.08</v>
+      </c>
+      <c r="E2">
+        <v>420.93</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <v>263.08</v>
-      </c>
-      <c r="F2">
-        <v>420.93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>117.23</v>
+      </c>
+      <c r="E3">
+        <v>234.45</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="E3">
-        <v>117.23</v>
-      </c>
-      <c r="F3">
-        <v>234.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="5"/>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>372.79</v>
+      </c>
+      <c r="E4">
+        <v>596.47</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="E4">
-        <v>372.79</v>
-      </c>
-      <c r="F4">
-        <v>596.47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s">
+      <c r="D5">
+        <v>500.0</v>
+      </c>
+      <c r="E5">
+        <v>729.73</v>
+      </c>
+      <c r="F5">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6">
+        <v>210.54</v>
+      </c>
+      <c r="E6">
+        <v>336.87</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="E5">
-        <v>500.0</v>
-      </c>
-      <c r="F5">
-        <v>729.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6">
-        <v>210.54</v>
-      </c>
-      <c r="F6">
-        <v>336.87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
+      <c r="D7">
+        <v>1751.04</v>
       </c>
       <c r="E7">
-        <v>1751.04</v>
+        <v>560.33</v>
       </c>
       <c r="F7">
-        <v>560.33</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1195,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1081,39 +1207,25 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2">
-        <v>3214.68</v>
-      </c>
-      <c r="B2">
-        <v>2878.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15">
-      <c r="A9" t="s">
-        <v>48</v>
+      <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1124,35 +1236,268 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="28.125"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2">
+        <v>3214.68</v>
+      </c>
+      <c r="B2">
+        <v>2878.78</v>
+      </c>
+      <c r="C2">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" t="s">
+      <c r="D12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E12" s="8" t="s">
         <v>53</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -14,8 +14,7 @@
   <sheets>
     <sheet name="~SK34 PENSION REPORT           " sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="$SK34 PENSION REPORT           " sheetId="3" r:id="rId4"/>
-    <sheet name="#SK34 PENSION REPORT           " sheetId="4" r:id="rId5"/>
+    <sheet name="#SK34 PENSION REPORT           " sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>Pension EE</t>
   </si>
@@ -96,6 +95,9 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
+    <t>PAYROLL</t>
+  </si>
+  <si>
     <t>FORENAME</t>
   </si>
   <si>
@@ -108,11 +110,14 @@
     <t>ER</t>
   </si>
   <si>
-    <t>AVC</t>
-  </si>
-  <si>
-    <t>No Refno or PPS number or payroll number specified
-Member does not have open Paypoints</t>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Forename [Dromahane] does not match Payroll member's (refno=0910332) forename [PHILIP] or its initial
+Surname [Recess] does not match Payroll member's (refno=0910332) surname  [BARRET]  (forename PHILIP)</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Dromahane</t>
@@ -121,51 +126,74 @@
     <t>Recess</t>
   </si>
   <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Forename [Ballybofey] does not match Payroll member's (refno=0910333) forename [JOHN] or its initial
+Surname [Kilcoole] does not match Payroll member's (refno=0910333) surname  [QUINN]  (forename JOHN)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Ballybofey</t>
   </si>
   <si>
     <t>Kilcoole</t>
   </si>
   <si>
+    <t>Forename [Caherdaniel] does not match Payroll member's (refno=0909496) forename [SEAN] or its initial
+Surname [Carndonagh] does not match Payroll member's (refno=0909496) surname  [HILL]  (forename SEAN)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Caherdaniel</t>
   </si>
   <si>
     <t>Carndonagh</t>
   </si>
   <si>
+    <t>Forename [Sheeaun] does not match Payroll member's (refno=0920069) forename [FERGAL] or its initial
+Surname [D Knocknagoshel] does not match Payroll member's (refno=0920069) surname  [OBRIEN]  (forename FERGAL)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Sheeaun</t>
   </si>
   <si>
     <t>D Knocknagoshel</t>
   </si>
   <si>
+    <t>Forename [Ballinode] does not match Payroll member's (refno=0909495) forename [SINEAD] or its initial
+Surname [O'Portnablagh] does not match Payroll member's (refno=0909495) surname  [JONES]  (forename SINEAD)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Ballinode</t>
   </si>
   <si>
     <t>O'Portnablagh</t>
   </si>
   <si>
+    <t>Forename [Rossaveel] does not match Payroll member's (refno=0909749) forename [TOM] or its initial
+Surname [Newtownforbes] does not match Payroll member's (refno=0909749) surname  [GREENAN]  (forename TOM)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Rossaveel</t>
   </si>
   <si>
     <t>Newtownforbes</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>Mandatory columns not found</t>
-  </si>
-  <si>
-    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
-  </si>
-  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -175,16 +203,13 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>6593.46</t>
+    <t>6093.46</t>
   </si>
   <si>
     <t>Payment Frequency</t>
   </si>
   <si>
     <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
   </si>
   <si>
     <t>Collection Method</t>
@@ -335,24 +360,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -374,14 +387,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -394,6 +399,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -421,21 +434,22 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -1036,7 +1050,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1044,10 +1058,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.5"/>
+    <col min="1" max="1" width="108.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1066,125 +1080,146 @@
       <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
         <v>263.08</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>420.93</v>
       </c>
-      <c r="F2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="5" t="s">
-        <v>27</v>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
         <v>117.23</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>234.45</v>
       </c>
-      <c r="F3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>372.79</v>
+      </c>
+      <c r="F4">
+        <v>596.47</v>
+      </c>
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>372.79</v>
-      </c>
-      <c r="E4">
-        <v>596.47</v>
-      </c>
-      <c r="F4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
         <v>500.0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>729.73</v>
       </c>
-      <c r="F5">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="5" t="s">
-        <v>27</v>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
         <v>210.54</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>336.87</v>
       </c>
-      <c r="F6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7">
         <v>1751.04</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>560.33</v>
       </c>
-      <c r="F7">
-        <v>0.0</v>
+      <c r="G7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1194,47 +1229,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -1255,249 +1249,243 @@
     <col min="9" max="9" width="28.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2">
         <v>3214.68</v>
       </c>
       <c r="B2">
         <v>2878.78</v>
       </c>
-      <c r="C2">
-        <v>500.0</v>
-      </c>
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
         <v>77</v>
       </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -15,6 +15,7 @@
     <sheet name="~SK34 PENSION REPORT           " sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="#SK34 PENSION REPORT           " sheetId="3" r:id="rId4"/>
+    <sheet name="$SK34 PENSION REPORT           " sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="54">
   <si>
     <t>Pension EE</t>
   </si>
@@ -110,13 +111,6 @@
     <t>ER</t>
   </si>
   <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Forename [Dromahane] does not match Payroll member's (refno=0910332) forename [PHILIP] or its initial
-Surname [Recess] does not match Payroll member's (refno=0910332) surname  [BARRET]  (forename PHILIP)</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -126,13 +120,6 @@
     <t>Recess</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Forename [Ballybofey] does not match Payroll member's (refno=0910333) forename [JOHN] or its initial
-Surname [Kilcoole] does not match Payroll member's (refno=0910333) surname  [QUINN]  (forename JOHN)</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -142,10 +129,6 @@
     <t>Kilcoole</t>
   </si>
   <si>
-    <t>Forename [Caherdaniel] does not match Payroll member's (refno=0909496) forename [SEAN] or its initial
-Surname [Carndonagh] does not match Payroll member's (refno=0909496) surname  [HILL]  (forename SEAN)</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -155,10 +138,6 @@
     <t>Carndonagh</t>
   </si>
   <si>
-    <t>Forename [Sheeaun] does not match Payroll member's (refno=0920069) forename [FERGAL] or its initial
-Surname [D Knocknagoshel] does not match Payroll member's (refno=0920069) surname  [OBRIEN]  (forename FERGAL)</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -168,10 +147,6 @@
     <t>D Knocknagoshel</t>
   </si>
   <si>
-    <t>Forename [Ballinode] does not match Payroll member's (refno=0909495) forename [SINEAD] or its initial
-Surname [O'Portnablagh] does not match Payroll member's (refno=0909495) surname  [JONES]  (forename SINEAD)</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -181,10 +156,6 @@
     <t>O'Portnablagh</t>
   </si>
   <si>
-    <t>Forename [Rossaveel] does not match Payroll member's (refno=0909749) forename [TOM] or its initial
-Surname [Newtownforbes] does not match Payroll member's (refno=0909749) surname  [GREENAN]  (forename TOM)</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -206,125 +177,26 @@
     <t>6093.46</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1181858</t>
-  </si>
-  <si>
-    <t>352001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>07/09/2021</t>
-  </si>
-  <si>
-    <t>15,788.67</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM August 2021</t>
-  </si>
-  <si>
-    <t>1180620</t>
-  </si>
-  <si>
-    <t>352004</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>30/08/2021</t>
-  </si>
-  <si>
-    <t>7,567.84</t>
-  </si>
-  <si>
-    <t>ILIM Aug 2021</t>
-  </si>
-  <si>
-    <t>1177725</t>
-  </si>
-  <si>
-    <t>12/08/2021</t>
-  </si>
-  <si>
-    <t>01/07/2021</t>
-  </si>
-  <si>
-    <t>ILIM July 21</t>
-  </si>
-  <si>
-    <t>1176008</t>
-  </si>
-  <si>
-    <t>30/07/2021</t>
-  </si>
-  <si>
-    <t>ILIM July 2021</t>
-  </si>
-  <si>
-    <t>1173446</t>
-  </si>
-  <si>
-    <t>29/06/2021</t>
-  </si>
-  <si>
-    <t>476.66</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>ILIM June 2021 M McNulty (N/E)</t>
-  </si>
-  <si>
-    <t>1172079</t>
-  </si>
-  <si>
-    <t>05/07/2021</t>
-  </si>
-  <si>
-    <t>15,827.67</t>
-  </si>
-  <si>
-    <t>ILIM June 2021</t>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,25 +219,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -434,23 +311,24 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,7 +928,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1058,10 +936,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="108.625"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1080,22 +958,17 @@
       <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="5" t="s">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
       </c>
       <c r="E2">
         <v>263.08</v>
@@ -1103,22 +976,17 @@
       <c r="F2">
         <v>420.93</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
       </c>
       <c r="E3">
         <v>117.23</v>
@@ -1126,22 +994,17 @@
       <c r="F3">
         <v>234.45</v>
       </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="6" t="s">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>372.79</v>
@@ -1149,22 +1012,17 @@
       <c r="F4">
         <v>596.47</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="6" t="s">
-        <v>41</v>
-      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>500.0</v>
@@ -1172,22 +1030,17 @@
       <c r="F5">
         <v>729.73</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
-      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>210.54</v>
@@ -1195,31 +1048,23 @@
       <c r="F6">
         <v>336.87</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="6" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>1751.04</v>
       </c>
       <c r="F7">
         <v>560.33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1230,24 +1075,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="28.125"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -1267,225 +1101,61 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" t="s">
-        <v>94</v>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
